--- a/PAPERWORK/Data Processing Excel/user1nasa.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1nasa.xlsx
@@ -5,39 +5,54 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBD577E-FFA2-9346-B550-CCCA6EEDB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B066971-C0F7-2749-8826-0A3FF0617932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="9460" windowWidth="27860" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$36:$A$49</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$2:$A$15</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$2:$B$15</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$36:$B$49</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$C$2:$C$15</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$36:$C$49</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$19:$A$32</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$19:$B$32</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$C$19:$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EC</t>
   </si>
@@ -45,7 +60,16 @@
     <t>CC</t>
   </si>
   <si>
-    <t>User Study 1</t>
+    <t>SSQ</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>NASA</t>
   </si>
 </sst>
 </file>
@@ -130,6 +154,380 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>EC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>CC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="60" min="10"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>NASA-TLX</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>EC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>CC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="5"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Completion Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -189,11 +587,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800" baseline="0">
+              <a:defRPr sz="2000" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -207,7 +605,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="60" min="10"/>
+        <cx:valScaling min="5"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -215,7 +613,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="2000">
+                  <a:defRPr sz="2000" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -233,7 +631,7 @@
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>NASA-TLX</a:t>
+                  <a:t>SSQ</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -247,6 +645,7 @@
             </cx:rich>
           </cx:tx>
         </cx:title>
+        <cx:majorGridlines/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -261,11 +660,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800" baseline="0">
+              <a:defRPr sz="2000" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -279,17 +678,17 @@
         </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="r" align="min" overlay="0">
+    <cx:legend pos="b" align="ctr" overlay="0">
       <cx:txPr>
         <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" baseline="0">
+            <a:defRPr sz="2000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000">
                 <a:lumMod val="65000"/>
@@ -303,6 +702,198 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>EC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>CC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="50"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SUS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -346,6 +937,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -861,84 +1572,1838 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>512762</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>115886</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="图表 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B0AA0B-FE6E-4025-ACDC-BB3733207621}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8577262" y="1995487"/>
-              <a:ext cx="5080000" cy="2797175"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064790B5-F49B-8802-509D-DF9F697D9E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5664729" y="334432"/>
+          <a:ext cx="18554700" cy="4692121"/>
+          <a:chOff x="5664729" y="334432"/>
+          <a:chExt cx="18554700" cy="4692121"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B0AA0B-FE6E-4025-ACDC-BB3733207621}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="19617795" y="340253"/>
+              <a:ext cx="4601634" cy="4686300"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19617795" y="340253"/>
+                <a:ext cx="4601634" cy="4686300"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:prstClr val="green"/>
+                <a:prstClr val="white"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="4" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D14A445-1FB6-224A-AA19-C7F5883A83C8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="5664729" y="334432"/>
+              <a:ext cx="4601633" cy="4690534"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5664729" y="334432"/>
+                <a:ext cx="4601633" cy="4690534"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="5" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1970F2-13CE-A145-9C89-DD229E64F11C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="10317162" y="334432"/>
+              <a:ext cx="4601633" cy="4690534"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10317162" y="334432"/>
+                <a:ext cx="4601633" cy="4690534"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="6" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED25FF0-AAC0-F845-8A21-6214D9DE9ADC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="14969595" y="334432"/>
+              <a:ext cx="4597400" cy="4690534"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14969595" y="334432"/>
+                <a:ext cx="4597400" cy="4690534"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1264,15 +3729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A283F-8D03-449C-8A2C-91AD748A9256}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="B1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1280,21 +3745,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="2:5">
       <c r="B2">
         <v>28</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3">
         <v>18</v>
       </c>
@@ -1302,10 +3764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>27</v>
       </c>
@@ -1313,10 +3772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>19</v>
       </c>
@@ -1324,10 +3780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>20</v>
       </c>
@@ -1335,10 +3788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>30</v>
       </c>
@@ -1346,10 +3796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>29</v>
       </c>
@@ -1357,10 +3804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>23</v>
       </c>
@@ -1368,10 +3812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>25</v>
       </c>
@@ -1379,10 +3820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>21</v>
       </c>
@@ -1390,10 +3828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>15</v>
       </c>
@@ -1401,10 +3836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>24</v>
       </c>
@@ -1412,10 +3844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>31</v>
       </c>
@@ -1423,15 +3852,357 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>19</v>
       </c>
       <c r="C15">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C53">
+        <v>11.32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <v>8.11</v>
+      </c>
+      <c r="C54">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>9.19</v>
+      </c>
+      <c r="C55">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>9.5</v>
+      </c>
+      <c r="C56">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>8.44</v>
+      </c>
+      <c r="C57">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <v>8.98</v>
+      </c>
+      <c r="C58">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>11.51</v>
+      </c>
+      <c r="C59">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <v>8.99</v>
+      </c>
+      <c r="C60">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>9.08</v>
+      </c>
+      <c r="C61">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>10.27</v>
+      </c>
+      <c r="C62">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>8.33</v>
+      </c>
+      <c r="C63">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>9.01</v>
+      </c>
+      <c r="C64">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>10.25</v>
+      </c>
+      <c r="C65">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>12.29</v>
+      </c>
+      <c r="C66">
+        <v>14.13</v>
       </c>
     </row>
   </sheetData>

--- a/PAPERWORK/Data Processing Excel/user1nasa.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1nasa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B066971-C0F7-2749-8826-0A3FF0617932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDF730-B7EC-4248-A152-43553513ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -18,34 +18,75 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$36:$A$49</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$53:$A$66</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$53:$B$66</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$19:$B$66</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$B$2:$B$66</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$C$19:$C$32</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$19:$C$66</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$2:$C$15</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$36:$B$49</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$C$2:$C$66</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$A$19:$A$32</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$A$2:$A$32</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet!$B$2:$B$32</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet!$C$19:$C$32</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet!$C$2:$C$32</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet!$A$36:$A$49</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$36:$C$49</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet!$B$36:$B$49</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet!$C$36:$C$49</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet!$A$19:$A$32</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet!$A$19:$A$66</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet!$A$2:$A$66</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet!$B$19:$B$32</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$19:$A$32</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$19:$B$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$C$19:$C$32</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet!$B$19:$B$66</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet!$B$2:$B$66</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet!$C$19:$C$32</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet!$C$19:$C$66</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet!$C$2:$C$66</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$A$19:$A$66</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet!$A$19:$A$32</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet!$B$2:$B$32</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet!$C$19:$C$32</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet!$C$2:$C$32</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$A$2:$A$66</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$A$53:$A$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -53,12 +94,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
   <si>
     <t>SSQ</t>
   </si>
@@ -70,6 +105,12 @@
   </si>
   <si>
     <t>NASA</t>
+  </si>
+  <si>
+    <t>Our Method</t>
+  </si>
+  <si>
+    <t>OrthoGaze</t>
   </si>
 </sst>
 </file>
@@ -154,18 +195,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.60</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.64</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.60</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.68</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -175,8 +216,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>EC</cx:v>
+              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -187,8 +228,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>CC</cx:v>
+              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -231,7 +272,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="60" min="10"/>
+        <cx:valScaling/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -257,7 +298,7 @@
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>NASA-TLX</a:t>
+                  <a:t>SSQ</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -341,18 +382,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -362,20 +403,21 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>EC</cx:v>
+              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>CC</cx:v>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -418,7 +460,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="5"/>
+        <cx:valScaling/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -528,18 +570,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -549,8 +591,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>EC</cx:v>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -561,8 +603,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>CC</cx:v>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -605,7 +647,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="5"/>
+        <cx:valScaling/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -631,7 +673,7 @@
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>SSQ</a:t>
+                  <a:t>NASA-TLX</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -737,7 +779,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>EC</cx:v>
+              <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -749,7 +791,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>CC</cx:v>
+              <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -792,7 +834,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="50"/>
+        <cx:valScaling min="40"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -898,162 +940,26 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3122,22 +3028,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>246062</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:colOff>246063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>512762</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238399</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>115886</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6">
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064790B5-F49B-8802-509D-DF9F697D9E32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE69196-9723-8575-68D1-AC46171E8AA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,10 +3051,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5664729" y="334432"/>
-          <a:ext cx="18554700" cy="4692121"/>
-          <a:chOff x="5664729" y="334432"/>
-          <a:chExt cx="18554700" cy="4692121"/>
+          <a:off x="5664730" y="812800"/>
+          <a:ext cx="17603002" cy="4213753"/>
+          <a:chOff x="5630863" y="330199"/>
+          <a:chExt cx="17494520" cy="4573587"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3165,8 +3071,8 @@
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="19617795" y="340253"/>
-              <a:ext cx="4601634" cy="4686300"/>
+              <a:off x="19490324" y="334707"/>
+              <a:ext cx="3635059" cy="4569079"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -3185,8 +3091,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="19617795" y="340253"/>
-                <a:ext cx="4601634" cy="4686300"/>
+                <a:off x="19490324" y="334707"/>
+                <a:ext cx="3635059" cy="4569079"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3228,8 +3134,8 @@
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="5664729" y="334432"/>
-              <a:ext cx="4601633" cy="4690534"/>
+              <a:off x="5630863" y="330199"/>
+              <a:ext cx="3635059" cy="4572029"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -3248,8 +3154,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="5664729" y="334432"/>
-                <a:ext cx="4601633" cy="4690534"/>
+                <a:off x="5630863" y="330199"/>
+                <a:ext cx="3635059" cy="4572029"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3291,8 +3197,8 @@
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="10317162" y="334432"/>
-              <a:ext cx="4601633" cy="4690534"/>
+              <a:off x="10254705" y="330199"/>
+              <a:ext cx="3635059" cy="4572029"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -3311,8 +3217,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10317162" y="334432"/>
-                <a:ext cx="4601633" cy="4690534"/>
+                <a:off x="10254705" y="330199"/>
+                <a:ext cx="3635059" cy="4572029"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3354,8 +3260,8 @@
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="14969595" y="334432"/>
-              <a:ext cx="4597400" cy="4690534"/>
+              <a:off x="14878547" y="330199"/>
+              <a:ext cx="3635059" cy="4572029"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -3374,8 +3280,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="14969595" y="334432"/>
-                <a:ext cx="4597400" cy="4690534"/>
+                <a:off x="14878547" y="330199"/>
+                <a:ext cx="3635059" cy="4572029"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3731,18 +3637,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A283F-8D03-449C-8A2C-91AD748A9256}">
   <dimension ref="B1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AJ31" sqref="AJ31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -3753,7 +3659,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3868,7 +3774,7 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3983,7 +3889,7 @@
         <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -4098,7 +4004,7 @@
         <v>11.32</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:5">

--- a/PAPERWORK/Data Processing Excel/user1nasa.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1nasa.xlsx
@@ -8,85 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDF730-B7EC-4248-A152-43553513ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A52AC-208F-B947-9F4E-6FD6450B75B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$36:$A$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$19:$B$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$19:$B$66</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$B$2:$B$66</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$B$53:$B$66</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$C$19:$C$32</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$19:$C$66</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$36:$B$49</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$C$2:$C$66</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$C$53:$C$66</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$A$53:$A$66</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$B$53:$B$66</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$C$53:$C$66</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$A$19:$A$32</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$53:$C$66</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$36:$A$49</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$36:$B$49</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$36:$C$49</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$15</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet!$B$19:$B$32</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet!$B$2:$B$32</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet!$C$19:$C$32</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet!$C$2:$C$32</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet!$A$36:$A$49</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$36:$C$49</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet!$B$36:$B$49</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet!$C$36:$C$49</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet!$A$19:$A$32</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet!$A$19:$A$66</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet!$A$2:$A$66</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet!$A$53:$A$66</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$15</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$19:$A$32</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet!$B$19:$B$66</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet!$B$2:$B$66</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet!$B$53:$B$66</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet!$C$19:$C$32</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet!$C$19:$C$66</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet!$C$2:$C$66</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet!$C$53:$C$66</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$A$19:$A$66</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet!$A$19:$A$32</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet!$B$19:$B$32</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet!$B$2:$B$32</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet!$C$19:$C$32</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet!$C$2:$C$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$A$2:$A$66</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$C$19:$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -195,18 +144,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -216,7 +165,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
@@ -228,7 +177,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
@@ -382,18 +331,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -403,7 +352,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
@@ -416,7 +365,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
@@ -570,18 +519,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -591,7 +540,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
@@ -603,7 +552,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
@@ -757,18 +706,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -778,7 +727,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9945E06C-1D53-F043-B6F3-7F03871BCF3F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Our Method</cx:v>
             </cx:txData>
           </cx:tx>
@@ -790,7 +739,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D15DA9A7-EA76-4B4E-BE00-449E87EB4B9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>OrthoGaze</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3035,8 +2984,8 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>238399</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>115886</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3052,7 +3001,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5664730" y="812800"/>
-          <a:ext cx="17603002" cy="4213753"/>
+          <a:ext cx="17603002" cy="3268133"/>
           <a:chOff x="5630863" y="330199"/>
           <a:chExt cx="17494520" cy="4573587"/>
         </a:xfrm>
@@ -3638,7 +3587,7 @@
   <dimension ref="B1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
